--- a/doc/DB명세서.xlsx
+++ b/doc/DB명세서.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="TB_USER" sheetId="1" r:id="rId1"/>
-    <sheet name="TB_WORD" sheetId="2" r:id="rId2"/>
+    <sheet name="TB_EXPRESSION" sheetId="2" r:id="rId2"/>
     <sheet name="TB_SETTING" sheetId="4" r:id="rId3"/>
+    <sheet name="TB_FAVORITE" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>TABLE NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일 인증성공 시 Y로 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>session</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,18 +232,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_WORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>표현을 저장한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>korean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중요항목 설정. Y : 설정, N: 미설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_SETTING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>표현을 저장할때의 셋팅값을 저장한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +345,58 @@
   </si>
   <si>
     <t xml:space="preserve">외국어의 음성녹음파일 저장 경로 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저의 권한. ADMIN 관리자, USER사용자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(512)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증성공 시 Y로 변경 그외는 암호화된값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_EXPRESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>important</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_FAVORITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word에 대한 좋아요정보를 저장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_SETTING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,15 +501,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +523,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -505,8 +535,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -801,355 +837,376 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6" t="s">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="C22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="C23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C22:E22"/>
@@ -1159,17 +1216,6 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1180,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1191,361 +1237,373 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="C14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="C15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="C21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>13</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
-        <v>15</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C16:E16"/>
@@ -1554,18 +1612,6 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,7 +1623,7 @@
   <dimension ref="B6:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1587,288 +1633,590 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="10" max="10" width="61.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/doc/DB명세서.xlsx
+++ b/doc/DB명세서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>TABLE NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(512)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 인증성공 시 Y로 변경 그외는 암호화된값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,6 +385,22 @@
   </si>
   <si>
     <t>TB_USER_SETTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(502)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastSetPWDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마지막 패스워드 설정일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +530,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -534,15 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:J23"/>
+  <dimension ref="B6:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,44 +841,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,11 +899,11 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
@@ -918,13 +922,13 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>14</v>
@@ -941,13 +945,13 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -955,174 +959,174 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="5"/>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1130,18 +1134,18 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1149,18 +1153,18 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1168,45 +1172,54 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
+  <mergeCells count="21">
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C22:E22"/>
@@ -1216,6 +1229,17 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,44 +1261,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1295,11 +1319,11 @@
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1318,13 +1342,13 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>14</v>
@@ -1332,20 +1356,20 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -1353,100 +1377,100 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
@@ -1454,20 +1478,20 @@
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>14</v>
@@ -1475,20 +1499,20 @@
       <c r="H17" s="5"/>
       <c r="I17" s="3"/>
       <c r="J17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>14</v>
@@ -1496,18 +1520,18 @@
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1517,20 +1541,20 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
@@ -1538,18 +1562,18 @@
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1561,16 +1585,16 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1581,9 +1605,637 @@
       <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="10" max="10" width="61.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="10" max="10" width="61.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1616,632 +2268,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="10" max="10" width="61.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>6</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>9</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <v>13</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="10" max="10" width="61.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>6</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>9</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <v>13</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>